--- a/biology/Microbiologie/Streptococcaceae/Streptococcaceae.xlsx
+++ b/biology/Microbiologie/Streptococcaceae/Streptococcaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Streptococcaceae est une famille de bactéries de l'ordre des Lactobacillales.
-Cette famille qui a été décrite en 1974 par Deibel et Seeley[3] (et validée en 1980), a pour genre type Streptococcus, un genre décrit en 1884 par Rosenbach.
+Cette famille qui a été décrite en 1974 par Deibel et Seeley (et validée en 1980), a pour genre type Streptococcus, un genre décrit en 1884 par Rosenbach.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractères microbiologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce sont des bactéries Gram-positives, de forme ovoïdes ou sphériques[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce sont des bactéries Gram-positives, de forme ovoïdes ou sphériques.
 Gram positif
 pas de formation d'endospores
 anaérobie facultatif
@@ -546,14 +560,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La famille des Streptococcaceae est circonscrite sur la base des analyses phylogénétiques déduites de l'étude des séquences des ARNr 16S.
-Selon BioLib                    (16 mai 2018)[5], Catalogue of Life                                   (16 mai 2018)[6], ITIS      (16 mai 2018)[2] et World Register of Marine Species                               (16 mai 2018)[7] :
+Selon BioLib                    (16 mai 2018), Catalogue of Life                                   (16 mai 2018), ITIS      (16 mai 2018) et World Register of Marine Species                               (16 mai 2018) :
 genre Lactococcus Schleifer, Kraus, Dvorak, Kilpper-Bälz, Collins &amp; Fischer, 1986
 genre Lactovum Matthies, Gössner, Acker, Schramm &amp; Drake, 2005
 genre Streptococcus Rosenbach, 1884
-Selon NCBI  (16 mai 2018)[8] et LPSN  (22 octobre 2023)[9] :
+Selon NCBI  (16 mai 2018) et LPSN  (22 octobre 2023) :
 genre Floricoccus "Anthococcus" Chuah &amp; al. 2016
 genre Lactococcus Schleifer &amp; al. 1986
 genre Okadaella Okada &amp; al. 2003
